--- a/utils/localisation_script/test-data/fetch-only-non-translated/out-sme/hi.xlsx
+++ b/utils/localisation_script/test-data/fetch-only-non-translated/out-sme/hi.xlsx
@@ -451,11 +451,7 @@
           <t>(No Username)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
